--- a/docs/_static/image/PartnerPlan/adaptability_level_application.xlsx
+++ b/docs/_static/image/PartnerPlan/adaptability_level_application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyue/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyue/Documents/GitHub/deeplink-rtd-docs/docs/_static/image/PartnerPlan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8024A66-F125-D045-9646-E61BD2BE6486}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E5C0A4-B166-F04E-9062-09E4E8B294ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23180" windowHeight="16300" xr2:uid="{39FF7F05-AF9C-6642-925E-F676CC5BEBF9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23180" windowHeight="16300" activeTab="1" xr2:uid="{39FF7F05-AF9C-6642-925E-F676CC5BEBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="适配兼容认证申请表" sheetId="48" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="101">
   <si>
     <t>单位信息登记</t>
   </si>
@@ -46,45 +46,6 @@
   </si>
   <si>
     <t xml:space="preserve">□基础运营 □芯片行业 □通信网络 □公共服务平台 □应用服务 □底层技术 □分发平台 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">□媒体传播 □国家标准单位 □其他补充            </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                  </t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>产业供需</t>
-  </si>
-  <si>
-    <t xml:space="preserve">□芯片供给 □AI服务器 □智算中心 □AI技术服务 □云服务 □渠道商 □学术科研 </t>
-  </si>
-  <si>
-    <r>
-      <t>□AI产业应用 □领域标准制定 □其他补充</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">             </t>
-    </r>
   </si>
   <si>
     <t>单位地址</t>
@@ -449,7 +410,21 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>不支持</t>
+    <r>
+      <t xml:space="preserve">□媒体传播 □科研机构 □其他补充            </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1122,7 +1097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,6 +1167,153 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1207,10 +1329,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1219,18 +1344,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1249,119 +1362,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1413,36 +1421,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1895,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86B6602-CAB8-4355-BBED-15A822A317F6}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:M27"/>
+    <sheetView zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1907,506 +1885,477 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="17" thickBot="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8" ht="17" thickBot="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="54" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1">
+      <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="58" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1">
+      <c r="A7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="61" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" thickBot="1">
-      <c r="A7" s="34" t="s">
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1">
+      <c r="A8" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1">
-      <c r="A8" s="53" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:8" ht="17" thickBot="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1">
+      <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1">
-      <c r="A10" s="47" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="44" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1">
-      <c r="A11" s="50" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-    </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1">
-      <c r="A12" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1">
-      <c r="A13" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="33"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="64">
+      <c r="F12" s="32"/>
+      <c r="G12" s="38">
         <f>模型领域!E29+模型领域!O25</f>
         <v>0</v>
       </c>
-      <c r="H14" s="65"/>
-    </row>
-    <row r="15" spans="1:8" ht="17" thickBot="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="68">
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="31">
         <f ca="1">模型领域!E30+模型领域!O26</f>
         <v>0</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="68" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1">
+      <c r="A20" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="68" t="s">
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1">
+      <c r="A21" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="74" t="s">
+      <c r="B21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="74" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="65"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="67"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
     </row>
     <row r="22" spans="1:8" ht="17" thickBot="1">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="81"/>
+      <c r="B22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="88"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="17" thickBot="1">
-      <c r="A23" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="21" t="s">
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104"/>
-    </row>
-    <row r="24" spans="1:8" ht="17" thickBot="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="87"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="82"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="82"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="21" t="s">
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
+    </row>
+    <row r="28" spans="1:8" ht="17" thickBot="1">
+      <c r="A28" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="104"/>
-    </row>
-    <row r="25" spans="1:8" ht="17" thickBot="1">
-      <c r="A25" s="78" t="s">
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="30" spans="1:8" s="5" customFormat="1">
+      <c r="A30" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="101"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="39" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1">
+      <c r="A31" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="36" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+    </row>
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="16" customHeight="1">
+      <c r="A32" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:8" ht="17" thickBot="1">
-      <c r="A30" s="23" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+    </row>
+    <row r="33" spans="1:8" s="5" customFormat="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+    </row>
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="16" customHeight="1">
+      <c r="A34" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="32" spans="1:8" s="5" customFormat="1">
-      <c r="A32" s="76" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="1:8" s="5" customFormat="1">
+      <c r="A35" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-    </row>
-    <row r="33" spans="1:8" s="5" customFormat="1">
-      <c r="A33" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-    </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" ht="16" customHeight="1">
-      <c r="A34" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-    </row>
-    <row r="35" spans="1:8" s="5" customFormat="1">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-    </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" ht="16" customHeight="1">
-      <c r="A36" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-    </row>
-    <row r="37" spans="1:8" s="5" customFormat="1">
-      <c r="A37" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-    </row>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:8" s="5" customFormat="1"/>
+    <row r="37" spans="1:8" s="5" customFormat="1"/>
     <row r="38" spans="1:8" s="5" customFormat="1"/>
-    <row r="39" spans="1:8" s="5" customFormat="1"/>
-    <row r="40" spans="1:8" s="5" customFormat="1"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
+  <mergeCells count="49">
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A24:H24"/>
     <mergeCell ref="A25:H25"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C20:H21"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C18:H19"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="A35:H35"/>
     <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="E14:F15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2419,9 +2368,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="O19" sqref="O19:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2443,53 +2392,51 @@
   <sheetData>
     <row r="1" spans="2:17">
       <c r="B1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="J1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="M1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="O1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="2:17" ht="17" thickBot="1">
       <c r="B2" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" s="17" t="str">
         <f t="shared" ref="C2:C28" si="0">IF(D2="NLP","NLP",IF(D2="OCR","OCR","CV"))</f>
         <v>NLP</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>104</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E2" s="17"/>
       <c r="F2" t="str">
         <f>IF(E2="支持",D2,"")</f>
         <v/>
@@ -2498,23 +2445,23 @@
         <f ca="1">_xlfn.UNIQUE(_xlfn._xlws.FILTER(F2:F28,F2:F28&lt;&gt;""))</f>
         <v>#NAME?</v>
       </c>
-      <c r="I2" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="93" t="s">
-        <v>51</v>
+      <c r="I2" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="104" t="s">
+        <v>47</v>
       </c>
       <c r="K2" s="11">
         <v>1.5</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="23"/>
       <c r="M2" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="89"/>
+        <v>49</v>
+      </c>
+      <c r="O2" s="100"/>
       <c r="P2" t="str">
         <f t="shared" ref="P2:P18" si="1">IF(O5="支持",M5,"")</f>
         <v/>
@@ -2526,35 +2473,33 @@
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E3" s="18"/>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F28" si="2">IF(E3="支持",D3,"")</f>
         <v/>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="93"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="104"/>
       <c r="K3" s="11">
         <v>2</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="89"/>
+      <c r="O3" s="100"/>
       <c r="P3" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2562,35 +2507,33 @@
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E4" s="18"/>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="93"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="104"/>
       <c r="K4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="L4" s="23"/>
       <c r="M4" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="89"/>
+        <v>56</v>
+      </c>
+      <c r="O4" s="100"/>
       <c r="P4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2598,37 +2541,35 @@
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E5" s="18"/>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="94" t="s">
-        <v>102</v>
+      <c r="I5" s="98"/>
+      <c r="J5" s="105" t="s">
+        <v>98</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L5" s="23"/>
       <c r="M5" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="90"/>
+        <v>49</v>
+      </c>
+      <c r="O5" s="101"/>
       <c r="P5" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2636,35 +2577,33 @@
     </row>
     <row r="6" spans="2:17">
       <c r="B6" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E6" s="18"/>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="95"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="106"/>
       <c r="K6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="L6" s="23"/>
       <c r="M6" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="90"/>
+        <v>49</v>
+      </c>
+      <c r="O6" s="101"/>
       <c r="P6" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2672,35 +2611,33 @@
     </row>
     <row r="7" spans="2:17">
       <c r="B7" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E7" s="18"/>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="95"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="106"/>
       <c r="K7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="L7" s="23"/>
       <c r="M7" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" s="90"/>
+        <v>49</v>
+      </c>
+      <c r="O7" s="101"/>
       <c r="P7" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2708,35 +2645,33 @@
     </row>
     <row r="8" spans="2:17">
       <c r="B8" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E8" s="18"/>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="95"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="106"/>
       <c r="K8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="L8" s="23"/>
       <c r="M8" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="90"/>
+        <v>49</v>
+      </c>
+      <c r="O8" s="101"/>
       <c r="P8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2744,35 +2679,33 @@
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="95"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="106"/>
       <c r="K9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L9" s="23"/>
       <c r="M9" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="90"/>
+        <v>56</v>
+      </c>
+      <c r="O9" s="101"/>
       <c r="P9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2780,35 +2713,33 @@
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E10" s="18"/>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="95"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="106"/>
       <c r="K10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="L10" s="23"/>
       <c r="M10" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="90"/>
+        <v>56</v>
+      </c>
+      <c r="O10" s="101"/>
       <c r="P10" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2816,35 +2747,33 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E11" s="18"/>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="95"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="106"/>
       <c r="K11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="L11" s="23"/>
       <c r="M11" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" s="90"/>
+        <v>56</v>
+      </c>
+      <c r="O11" s="101"/>
       <c r="P11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2852,35 +2781,33 @@
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E12" s="18"/>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="96"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="107"/>
       <c r="K12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="L12" s="23"/>
       <c r="M12" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="90"/>
+        <v>56</v>
+      </c>
+      <c r="O12" s="101"/>
       <c r="P12" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2888,37 +2815,35 @@
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E13" s="18"/>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="94" t="s">
-        <v>103</v>
+      <c r="I13" s="98"/>
+      <c r="J13" s="105" t="s">
+        <v>99</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L13" s="23"/>
       <c r="M13" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" s="90"/>
+        <v>52</v>
+      </c>
+      <c r="O13" s="100"/>
       <c r="P13" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2926,35 +2851,33 @@
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C14" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E14" s="18"/>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="95"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="106"/>
       <c r="K14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="L14" s="23"/>
       <c r="M14" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O14" s="90"/>
+        <v>52</v>
+      </c>
+      <c r="O14" s="100"/>
       <c r="P14" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2962,35 +2885,33 @@
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E15" s="18"/>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="95"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="106"/>
       <c r="K15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="L15" s="23"/>
       <c r="M15" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" s="90"/>
+        <v>52</v>
+      </c>
+      <c r="O15" s="100"/>
       <c r="P15" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2998,35 +2919,33 @@
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C16" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E16" s="18"/>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I16" s="87"/>
-      <c r="J16" s="95"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="106"/>
       <c r="K16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L16" s="23"/>
       <c r="M16" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" s="89"/>
+        <v>49</v>
+      </c>
+      <c r="O16" s="100"/>
       <c r="P16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3034,35 +2953,33 @@
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E17" s="18"/>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="95"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="106"/>
       <c r="K17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="L17" s="23"/>
       <c r="M17" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" s="89"/>
+        <v>49</v>
+      </c>
+      <c r="O17" s="100"/>
       <c r="P17" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3070,35 +2987,33 @@
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E18" s="18"/>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I18" s="87"/>
-      <c r="J18" s="95"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="106"/>
       <c r="K18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="L18" s="23"/>
       <c r="M18" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" s="89"/>
+        <v>49</v>
+      </c>
+      <c r="O18" s="100"/>
       <c r="P18" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3106,35 +3021,33 @@
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C19" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E19" s="23"/>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="95"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L19" s="23"/>
       <c r="M19" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" s="89"/>
+        <v>56</v>
+      </c>
+      <c r="O19" s="100"/>
       <c r="P19" t="str">
         <f>IF(O2="支持",M2,"")</f>
         <v/>
@@ -3142,35 +3055,33 @@
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C20" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E20" s="23"/>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="87"/>
-      <c r="J20" s="95"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="106"/>
       <c r="K20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="L20" s="23"/>
       <c r="M20" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O20" s="89"/>
+        <v>56</v>
+      </c>
+      <c r="O20" s="100"/>
       <c r="P20" t="str">
         <f>IF(O3="支持",M3,"")</f>
         <v/>
@@ -3178,35 +3089,33 @@
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C21" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E21" s="23"/>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I21" s="87"/>
-      <c r="J21" s="96"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="107"/>
       <c r="K21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="L21" s="23"/>
       <c r="M21" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O21" s="89"/>
+        <v>56</v>
+      </c>
+      <c r="O21" s="100"/>
       <c r="P21" t="str">
         <f>IF(O4="支持",M4,"")</f>
         <v/>
@@ -3214,37 +3123,35 @@
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C22" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E22" s="23"/>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I22" s="87"/>
-      <c r="J22" s="93" t="s">
-        <v>89</v>
+      <c r="I22" s="98"/>
+      <c r="J22" s="104" t="s">
+        <v>85</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L22" s="23"/>
       <c r="M22" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O22" s="90"/>
+        <v>49</v>
+      </c>
+      <c r="O22" s="101"/>
       <c r="P22" t="str">
         <f>IF(O22="支持",M22,"")</f>
         <v/>
@@ -3252,73 +3159,69 @@
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C23" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E23" s="23"/>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="93"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="104"/>
       <c r="K23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="L23" s="23"/>
       <c r="M23" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" s="90"/>
+        <v>49</v>
+      </c>
+      <c r="O23" s="101"/>
       <c r="P23" t="str">
         <f>IF(O23="支持",M23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" ht="17" thickBot="1">
       <c r="B24" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C24" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E24" s="23"/>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I24" s="88"/>
+      <c r="I24" s="99"/>
       <c r="J24" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="L24" s="23"/>
       <c r="M24" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="O24" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="O24" s="23"/>
       <c r="P24" t="str">
         <f>IF(O24="支持",M24,"")</f>
         <v/>
@@ -3326,26 +3229,24 @@
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C25" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E25" s="23"/>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M25" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="N25" s="91"/>
+      <c r="M25" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25" s="102"/>
       <c r="O25" s="10">
         <f>COUNTIF(O2:O24,"支持")</f>
         <v>0</v>
@@ -3353,26 +3254,24 @@
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C26" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E26" s="23"/>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M26" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="N26" s="92"/>
+      <c r="M26" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="103"/>
       <c r="O26" s="4">
         <f ca="1">COUNTA(Q3:Q24)+IF(ISERROR(Q2),0,1)</f>
         <v>0</v>
@@ -3380,18 +3279,16 @@
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E27" s="23"/>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3399,40 +3296,38 @@
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="17" t="str">
         <f t="shared" si="0"/>
         <v>CV</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E28" s="23"/>
       <c r="F28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="B29" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
       <c r="E29" s="17">
         <f>COUNTIF(E2:E28,"支持")</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
+      <c r="B30" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="95"/>
+      <c r="D30" s="96"/>
       <c r="E30" s="4">
         <f ca="1">COUNTA(G3:G28)+IF(ISERROR(G2),0,1)</f>
         <v>0</v>
@@ -3440,7 +3335,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="I2:I24 L2:L24" name="区域1"/>
+    <protectedRange sqref="I2:I24" name="区域1"/>
   </protectedRanges>
   <sortState ref="B2:E28">
     <sortCondition descending="1" ref="C2:C28"/>
@@ -3527,12 +3422,15 @@
       <formula>"CV"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D3:D5 D7 D9:D10 D12 D14:D15 D25:D28 B3:B30 J13 J5 B39:B1048576 C32:C1048576 M25:M26 N26 B37 D37:D1048576 D17:D22 B34:D34 B36:D36 D35:E35" xr:uid="{D973347F-0B2B-48CF-8313-E47E24CEC7EA}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="不支持/支持" sqref="E2:E28" xr:uid="{01B8F016-C044-7548-858B-CD9AA4D93FBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="不支持/支持" sqref="O24 L2:L24 E2:E28" xr:uid="{01B8F016-C044-7548-858B-CD9AA4D93FBF}">
       <formula1>"不支持,支持"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否基于DeepLink实现模型跑通" sqref="E1" xr:uid="{ABA7A9C9-8682-B64A-BB0D-6C32741DA5A8}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O23" xr:uid="{6735DB37-7155-5F44-9519-E6EACE48BD6B}">
+      <formula1>"不支持,支持"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B12" location="SSD!A1" display="SSD" xr:uid="{ED93EFD4-E3B0-4264-BC27-825C675F622B}"/>
